--- a/40.SLnC_web_scarpping/data/store_list_full.xlsx
+++ b/40.SLnC_web_scarpping/data/store_list_full.xlsx
@@ -1,25 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20403"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\YB_data\Git-Study\40.SLnC_web_scarpping\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\work_2023\11.Webcrawling_SLnC\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B017994A-5AC4-48FB-8E86-DB103C4BE319}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19545" windowHeight="11010"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19545" windowHeight="11010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="store_list" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="141">
   <si>
     <t>no</t>
   </si>
@@ -487,22 +488,39 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
+    <t>store_url_naver</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>store_type</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
     <t>UCD</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>store_url_naver</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>store_type</t>
+  </si>
+  <si>
+    <t>JUCD</t>
+  </si>
+  <si>
+    <t>CD</t>
+  </si>
+  <si>
+    <t>Black</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dining</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>JUMBO</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1101,12 +1119,15 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="42">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="43">
@@ -1429,16 +1450,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E64"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="13.625" customWidth="1"/>
+    <col min="3" max="3" width="13.625" style="2" customWidth="1"/>
     <col min="4" max="4" width="37" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="84.125" customWidth="1"/>
     <col min="6" max="6" width="11.625" bestFit="1" customWidth="1"/>
@@ -1451,14 +1472,14 @@
       <c r="B1" t="s">
         <v>132</v>
       </c>
-      <c r="C1" t="s">
-        <v>135</v>
+      <c r="C1" s="2" t="s">
+        <v>134</v>
       </c>
       <c r="D1" t="s">
         <v>1</v>
       </c>
       <c r="E1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
@@ -1468,8 +1489,8 @@
       <c r="B2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" t="s">
-        <v>133</v>
+      <c r="C2" s="2" t="s">
+        <v>137</v>
       </c>
       <c r="D2" t="s">
         <v>66</v>
@@ -1485,8 +1506,8 @@
       <c r="B3" t="s">
         <v>2</v>
       </c>
-      <c r="C3" t="s">
-        <v>133</v>
+      <c r="C3" s="2" t="s">
+        <v>137</v>
       </c>
       <c r="D3" t="s">
         <v>3</v>
@@ -1502,8 +1523,8 @@
       <c r="B4" t="s">
         <v>2</v>
       </c>
-      <c r="C4" t="s">
-        <v>133</v>
+      <c r="C4" s="2" t="s">
+        <v>139</v>
       </c>
       <c r="D4" t="s">
         <v>70</v>
@@ -1519,8 +1540,8 @@
       <c r="B5" t="s">
         <v>2</v>
       </c>
-      <c r="C5" t="s">
-        <v>133</v>
+      <c r="C5" s="2" t="s">
+        <v>137</v>
       </c>
       <c r="D5" t="s">
         <v>4</v>
@@ -1536,8 +1557,8 @@
       <c r="B6" t="s">
         <v>2</v>
       </c>
-      <c r="C6" t="s">
-        <v>133</v>
+      <c r="C6" s="2" t="s">
+        <v>137</v>
       </c>
       <c r="D6" t="s">
         <v>5</v>
@@ -1553,8 +1574,8 @@
       <c r="B7" t="s">
         <v>2</v>
       </c>
-      <c r="C7" t="s">
-        <v>133</v>
+      <c r="C7" s="2" t="s">
+        <v>137</v>
       </c>
       <c r="D7" t="s">
         <v>6</v>
@@ -1570,8 +1591,8 @@
       <c r="B8" t="s">
         <v>2</v>
       </c>
-      <c r="C8" t="s">
-        <v>133</v>
+      <c r="C8" s="2" t="s">
+        <v>137</v>
       </c>
       <c r="D8" t="s">
         <v>7</v>
@@ -1587,8 +1608,8 @@
       <c r="B9" t="s">
         <v>2</v>
       </c>
-      <c r="C9" t="s">
-        <v>133</v>
+      <c r="C9" s="2" t="s">
+        <v>137</v>
       </c>
       <c r="D9" t="s">
         <v>8</v>
@@ -1604,8 +1625,8 @@
       <c r="B10" t="s">
         <v>2</v>
       </c>
-      <c r="C10" t="s">
-        <v>133</v>
+      <c r="C10" s="2" t="s">
+        <v>137</v>
       </c>
       <c r="D10" t="s">
         <v>9</v>
@@ -1621,8 +1642,8 @@
       <c r="B11" t="s">
         <v>2</v>
       </c>
-      <c r="C11" t="s">
-        <v>133</v>
+      <c r="C11" s="2" t="s">
+        <v>137</v>
       </c>
       <c r="D11" t="s">
         <v>10</v>
@@ -1638,8 +1659,8 @@
       <c r="B12" t="s">
         <v>2</v>
       </c>
-      <c r="C12" t="s">
-        <v>133</v>
+      <c r="C12" s="2" t="s">
+        <v>137</v>
       </c>
       <c r="D12" t="s">
         <v>11</v>
@@ -1655,8 +1676,8 @@
       <c r="B13" t="s">
         <v>2</v>
       </c>
-      <c r="C13" t="s">
-        <v>133</v>
+      <c r="C13" s="2" t="s">
+        <v>136</v>
       </c>
       <c r="D13" t="s">
         <v>12</v>
@@ -1672,8 +1693,8 @@
       <c r="B14" t="s">
         <v>2</v>
       </c>
-      <c r="C14" t="s">
-        <v>133</v>
+      <c r="C14" s="2" t="s">
+        <v>137</v>
       </c>
       <c r="D14" t="s">
         <v>13</v>
@@ -1689,8 +1710,8 @@
       <c r="B15" t="s">
         <v>2</v>
       </c>
-      <c r="C15" t="s">
-        <v>133</v>
+      <c r="C15" s="2" t="s">
+        <v>137</v>
       </c>
       <c r="D15" t="s">
         <v>14</v>
@@ -1706,8 +1727,8 @@
       <c r="B16" t="s">
         <v>2</v>
       </c>
-      <c r="C16" t="s">
-        <v>133</v>
+      <c r="C16" s="2" t="s">
+        <v>137</v>
       </c>
       <c r="D16" t="s">
         <v>15</v>
@@ -1723,8 +1744,8 @@
       <c r="B17" t="s">
         <v>2</v>
       </c>
-      <c r="C17" t="s">
-        <v>133</v>
+      <c r="C17" s="2" t="s">
+        <v>137</v>
       </c>
       <c r="D17" t="s">
         <v>16</v>
@@ -1740,8 +1761,8 @@
       <c r="B18" t="s">
         <v>2</v>
       </c>
-      <c r="C18" t="s">
-        <v>133</v>
+      <c r="C18" s="2" t="s">
+        <v>137</v>
       </c>
       <c r="D18" t="s">
         <v>17</v>
@@ -1757,8 +1778,8 @@
       <c r="B19" t="s">
         <v>2</v>
       </c>
-      <c r="C19" t="s">
-        <v>133</v>
+      <c r="C19" s="2" t="s">
+        <v>136</v>
       </c>
       <c r="D19" t="s">
         <v>18</v>
@@ -1774,8 +1795,8 @@
       <c r="B20" t="s">
         <v>2</v>
       </c>
-      <c r="C20" t="s">
-        <v>133</v>
+      <c r="C20" s="2" t="s">
+        <v>137</v>
       </c>
       <c r="D20" t="s">
         <v>19</v>
@@ -1791,8 +1812,8 @@
       <c r="B21" t="s">
         <v>2</v>
       </c>
-      <c r="C21" t="s">
-        <v>133</v>
+      <c r="C21" s="2" t="s">
+        <v>136</v>
       </c>
       <c r="D21" t="s">
         <v>20</v>
@@ -1808,8 +1829,8 @@
       <c r="B22" t="s">
         <v>2</v>
       </c>
-      <c r="C22" t="s">
-        <v>133</v>
+      <c r="C22" s="2" t="s">
+        <v>136</v>
       </c>
       <c r="D22" t="s">
         <v>21</v>
@@ -1825,8 +1846,8 @@
       <c r="B23" t="s">
         <v>2</v>
       </c>
-      <c r="C23" t="s">
-        <v>133</v>
+      <c r="C23" s="2" t="s">
+        <v>137</v>
       </c>
       <c r="D23" t="s">
         <v>22</v>
@@ -1842,8 +1863,8 @@
       <c r="B24" t="s">
         <v>2</v>
       </c>
-      <c r="C24" t="s">
-        <v>133</v>
+      <c r="C24" s="2" t="s">
+        <v>138</v>
       </c>
       <c r="D24" t="s">
         <v>23</v>
@@ -1859,8 +1880,8 @@
       <c r="B25" t="s">
         <v>2</v>
       </c>
-      <c r="C25" t="s">
-        <v>133</v>
+      <c r="C25" s="2" t="s">
+        <v>135</v>
       </c>
       <c r="D25" t="s">
         <v>24</v>
@@ -1876,8 +1897,8 @@
       <c r="B26" t="s">
         <v>2</v>
       </c>
-      <c r="C26" t="s">
-        <v>133</v>
+      <c r="C26" s="2" t="s">
+        <v>135</v>
       </c>
       <c r="D26" t="s">
         <v>25</v>
@@ -1893,8 +1914,8 @@
       <c r="B27" t="s">
         <v>2</v>
       </c>
-      <c r="C27" t="s">
-        <v>133</v>
+      <c r="C27" s="2" t="s">
+        <v>136</v>
       </c>
       <c r="D27" t="s">
         <v>26</v>
@@ -1910,8 +1931,8 @@
       <c r="B28" t="s">
         <v>2</v>
       </c>
-      <c r="C28" t="s">
-        <v>133</v>
+      <c r="C28" s="2" t="s">
+        <v>136</v>
       </c>
       <c r="D28" t="s">
         <v>27</v>
@@ -1927,8 +1948,8 @@
       <c r="B29" t="s">
         <v>2</v>
       </c>
-      <c r="C29" t="s">
-        <v>133</v>
+      <c r="C29" s="2" t="s">
+        <v>136</v>
       </c>
       <c r="D29" t="s">
         <v>28</v>
@@ -1944,8 +1965,8 @@
       <c r="B30" t="s">
         <v>2</v>
       </c>
-      <c r="C30" t="s">
-        <v>133</v>
+      <c r="C30" s="2" t="s">
+        <v>136</v>
       </c>
       <c r="D30" t="s">
         <v>29</v>
@@ -1961,8 +1982,8 @@
       <c r="B31" t="s">
         <v>2</v>
       </c>
-      <c r="C31" t="s">
-        <v>133</v>
+      <c r="C31" s="2" t="s">
+        <v>137</v>
       </c>
       <c r="D31" t="s">
         <v>30</v>
@@ -1978,8 +1999,8 @@
       <c r="B32" t="s">
         <v>2</v>
       </c>
-      <c r="C32" t="s">
-        <v>133</v>
+      <c r="C32" s="2" t="s">
+        <v>137</v>
       </c>
       <c r="D32" t="s">
         <v>31</v>
@@ -1995,8 +2016,8 @@
       <c r="B33" t="s">
         <v>2</v>
       </c>
-      <c r="C33" t="s">
-        <v>133</v>
+      <c r="C33" s="2" t="s">
+        <v>137</v>
       </c>
       <c r="D33" t="s">
         <v>32</v>
@@ -2012,8 +2033,8 @@
       <c r="B34" t="s">
         <v>2</v>
       </c>
-      <c r="C34" t="s">
-        <v>133</v>
+      <c r="C34" s="2" t="s">
+        <v>137</v>
       </c>
       <c r="D34" t="s">
         <v>33</v>
@@ -2029,8 +2050,8 @@
       <c r="B35" t="s">
         <v>2</v>
       </c>
-      <c r="C35" t="s">
-        <v>133</v>
+      <c r="C35" s="2" t="s">
+        <v>137</v>
       </c>
       <c r="D35" t="s">
         <v>34</v>
@@ -2046,8 +2067,8 @@
       <c r="B36" t="s">
         <v>2</v>
       </c>
-      <c r="C36" t="s">
-        <v>133</v>
+      <c r="C36" s="2" t="s">
+        <v>137</v>
       </c>
       <c r="D36" t="s">
         <v>35</v>
@@ -2063,8 +2084,8 @@
       <c r="B37" t="s">
         <v>2</v>
       </c>
-      <c r="C37" t="s">
-        <v>133</v>
+      <c r="C37" s="2" t="s">
+        <v>140</v>
       </c>
       <c r="D37" t="s">
         <v>36</v>
@@ -2080,8 +2101,8 @@
       <c r="B38" t="s">
         <v>2</v>
       </c>
-      <c r="C38" t="s">
-        <v>133</v>
+      <c r="C38" s="2" t="s">
+        <v>137</v>
       </c>
       <c r="D38" t="s">
         <v>37</v>
@@ -2095,16 +2116,16 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>38</v>
-      </c>
-      <c r="C39" t="s">
-        <v>133</v>
+        <v>54</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>135</v>
       </c>
       <c r="D39" t="s">
-        <v>39</v>
+        <v>55</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>105</v>
+        <v>122</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
@@ -2112,16 +2133,16 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>38</v>
-      </c>
-      <c r="C40" t="s">
-        <v>133</v>
+        <v>54</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>136</v>
       </c>
       <c r="D40" t="s">
-        <v>40</v>
+        <v>56</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>106</v>
+        <v>123</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
@@ -2129,16 +2150,16 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>38</v>
-      </c>
-      <c r="C41" t="s">
-        <v>133</v>
+        <v>54</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>136</v>
       </c>
       <c r="D41" t="s">
-        <v>41</v>
+        <v>57</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>107</v>
+        <v>124</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
@@ -2146,16 +2167,16 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>38</v>
-      </c>
-      <c r="C42" t="s">
-        <v>133</v>
+        <v>54</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>136</v>
       </c>
       <c r="D42" t="s">
-        <v>108</v>
+        <v>58</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>109</v>
+        <v>125</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
@@ -2163,16 +2184,16 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>38</v>
-      </c>
-      <c r="C43" t="s">
-        <v>133</v>
+        <v>54</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>135</v>
       </c>
       <c r="D43" t="s">
-        <v>42</v>
+        <v>59</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>110</v>
+        <v>126</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
@@ -2180,16 +2201,16 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>38</v>
-      </c>
-      <c r="C44" t="s">
-        <v>133</v>
+        <v>60</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>137</v>
       </c>
       <c r="D44" t="s">
-        <v>43</v>
+        <v>61</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>111</v>
+        <v>127</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
@@ -2197,16 +2218,16 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>38</v>
-      </c>
-      <c r="C45" t="s">
-        <v>133</v>
+        <v>60</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>137</v>
       </c>
       <c r="D45" t="s">
-        <v>44</v>
+        <v>62</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>112</v>
+        <v>128</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
@@ -2214,16 +2235,16 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>38</v>
-      </c>
-      <c r="C46" t="s">
-        <v>133</v>
+        <v>60</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>137</v>
       </c>
       <c r="D46" t="s">
-        <v>45</v>
+        <v>63</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>113</v>
+        <v>129</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.3">
@@ -2231,16 +2252,16 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>38</v>
-      </c>
-      <c r="C47" t="s">
-        <v>133</v>
+        <v>60</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>137</v>
       </c>
       <c r="D47" t="s">
-        <v>46</v>
+        <v>64</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>114</v>
+        <v>130</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.3">
@@ -2248,16 +2269,16 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>38</v>
-      </c>
-      <c r="C48" t="s">
-        <v>133</v>
+        <v>60</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>137</v>
       </c>
       <c r="D48" t="s">
-        <v>47</v>
+        <v>65</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>115</v>
+        <v>131</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.3">
@@ -2267,14 +2288,14 @@
       <c r="B49" t="s">
         <v>38</v>
       </c>
-      <c r="C49" t="s">
-        <v>133</v>
+      <c r="C49" s="2" t="s">
+        <v>137</v>
       </c>
       <c r="D49" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.3">
@@ -2284,14 +2305,14 @@
       <c r="B50" t="s">
         <v>38</v>
       </c>
-      <c r="C50" t="s">
-        <v>133</v>
+      <c r="C50" s="2" t="s">
+        <v>135</v>
       </c>
       <c r="D50" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.3">
@@ -2301,14 +2322,14 @@
       <c r="B51" t="s">
         <v>38</v>
       </c>
-      <c r="C51" t="s">
-        <v>133</v>
+      <c r="C51" s="2" t="s">
+        <v>137</v>
       </c>
       <c r="D51" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.3">
@@ -2318,14 +2339,14 @@
       <c r="B52" t="s">
         <v>38</v>
       </c>
-      <c r="C52" t="s">
-        <v>133</v>
+      <c r="C52" s="2" t="s">
+        <v>135</v>
       </c>
       <c r="D52" t="s">
-        <v>51</v>
+        <v>108</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.3">
@@ -2335,14 +2356,14 @@
       <c r="B53" t="s">
         <v>38</v>
       </c>
-      <c r="C53" t="s">
-        <v>133</v>
+      <c r="C53" s="2" t="s">
+        <v>137</v>
       </c>
       <c r="D53" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.3">
@@ -2352,14 +2373,14 @@
       <c r="B54" t="s">
         <v>38</v>
       </c>
-      <c r="C54" t="s">
-        <v>133</v>
+      <c r="C54" s="2" t="s">
+        <v>137</v>
       </c>
       <c r="D54" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.3">
@@ -2367,16 +2388,16 @@
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>54</v>
-      </c>
-      <c r="C55" t="s">
-        <v>133</v>
+        <v>38</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>137</v>
       </c>
       <c r="D55" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.3">
@@ -2384,16 +2405,16 @@
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>54</v>
-      </c>
-      <c r="C56" t="s">
-        <v>133</v>
+        <v>38</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>137</v>
       </c>
       <c r="D56" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.3">
@@ -2401,16 +2422,16 @@
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>54</v>
-      </c>
-      <c r="C57" t="s">
-        <v>133</v>
+        <v>38</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>137</v>
       </c>
       <c r="D57" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.3">
@@ -2418,16 +2439,16 @@
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>54</v>
-      </c>
-      <c r="C58" t="s">
-        <v>133</v>
+        <v>38</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>137</v>
       </c>
       <c r="D58" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.3">
@@ -2435,16 +2456,16 @@
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>54</v>
-      </c>
-      <c r="C59" t="s">
-        <v>133</v>
+        <v>38</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>137</v>
       </c>
       <c r="D59" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.3">
@@ -2452,16 +2473,16 @@
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>60</v>
-      </c>
-      <c r="C60" t="s">
-        <v>133</v>
+        <v>38</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>137</v>
       </c>
       <c r="D60" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.3">
@@ -2469,16 +2490,16 @@
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>60</v>
-      </c>
-      <c r="C61" t="s">
-        <v>133</v>
+        <v>38</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>137</v>
       </c>
       <c r="D61" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.3">
@@ -2486,16 +2507,16 @@
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>60</v>
-      </c>
-      <c r="C62" t="s">
-        <v>133</v>
+        <v>38</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>135</v>
       </c>
       <c r="D62" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.3">
@@ -2503,16 +2524,16 @@
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>60</v>
-      </c>
-      <c r="C63" t="s">
-        <v>133</v>
+        <v>38</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>137</v>
       </c>
       <c r="D63" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.3">
@@ -2520,86 +2541,86 @@
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>60</v>
-      </c>
-      <c r="C64" t="s">
-        <v>133</v>
+        <v>38</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>137</v>
       </c>
       <c r="D64" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1"/>
-    <hyperlink ref="E3" r:id="rId2"/>
-    <hyperlink ref="E4:E11" r:id="rId3" display="https://m.place.naver.com/restaurant/1136098121/review/visitor?entry=ple&amp;reviewSort=recent"/>
-    <hyperlink ref="E4" r:id="rId4"/>
-    <hyperlink ref="E5" r:id="rId5"/>
-    <hyperlink ref="E6" r:id="rId6"/>
-    <hyperlink ref="E7" r:id="rId7"/>
-    <hyperlink ref="E8" r:id="rId8"/>
-    <hyperlink ref="E9" r:id="rId9"/>
-    <hyperlink ref="E10" r:id="rId10"/>
-    <hyperlink ref="E11" r:id="rId11"/>
-    <hyperlink ref="E12" r:id="rId12"/>
-    <hyperlink ref="E13:E64" r:id="rId13" display="https://m.place.naver.com/restaurant/****/review/visitor?entry=ple&amp;reviewSort=recent"/>
-    <hyperlink ref="E13" r:id="rId14"/>
-    <hyperlink ref="E14" r:id="rId15"/>
-    <hyperlink ref="E15" r:id="rId16"/>
-    <hyperlink ref="E16" r:id="rId17"/>
-    <hyperlink ref="E17" r:id="rId18"/>
-    <hyperlink ref="E18" r:id="rId19"/>
-    <hyperlink ref="E19" r:id="rId20"/>
-    <hyperlink ref="E20" r:id="rId21"/>
-    <hyperlink ref="E21" r:id="rId22"/>
-    <hyperlink ref="E22" r:id="rId23"/>
-    <hyperlink ref="E23" r:id="rId24"/>
-    <hyperlink ref="E24" r:id="rId25"/>
-    <hyperlink ref="E25" r:id="rId26"/>
-    <hyperlink ref="E26" r:id="rId27"/>
-    <hyperlink ref="E27" r:id="rId28"/>
-    <hyperlink ref="E28" r:id="rId29"/>
-    <hyperlink ref="E29" r:id="rId30"/>
-    <hyperlink ref="E30" r:id="rId31"/>
-    <hyperlink ref="E31" r:id="rId32"/>
-    <hyperlink ref="E32" r:id="rId33"/>
-    <hyperlink ref="E33" r:id="rId34"/>
-    <hyperlink ref="E34" r:id="rId35"/>
-    <hyperlink ref="E35" r:id="rId36"/>
-    <hyperlink ref="E36" r:id="rId37"/>
-    <hyperlink ref="E37" r:id="rId38"/>
-    <hyperlink ref="E38" r:id="rId39"/>
-    <hyperlink ref="E39" r:id="rId40"/>
-    <hyperlink ref="E40" r:id="rId41"/>
-    <hyperlink ref="E41" r:id="rId42"/>
-    <hyperlink ref="E42" r:id="rId43"/>
-    <hyperlink ref="E43" r:id="rId44"/>
-    <hyperlink ref="E44" r:id="rId45"/>
-    <hyperlink ref="E45" r:id="rId46"/>
-    <hyperlink ref="E46" r:id="rId47"/>
-    <hyperlink ref="E47" r:id="rId48"/>
-    <hyperlink ref="E48" r:id="rId49"/>
-    <hyperlink ref="E49" r:id="rId50"/>
-    <hyperlink ref="E50" r:id="rId51"/>
-    <hyperlink ref="E51" r:id="rId52"/>
-    <hyperlink ref="E52" r:id="rId53"/>
-    <hyperlink ref="E53" r:id="rId54"/>
-    <hyperlink ref="E54" r:id="rId55"/>
-    <hyperlink ref="E55" r:id="rId56"/>
-    <hyperlink ref="E56" r:id="rId57"/>
-    <hyperlink ref="E57" r:id="rId58"/>
-    <hyperlink ref="E58" r:id="rId59"/>
-    <hyperlink ref="E59" r:id="rId60"/>
-    <hyperlink ref="E60" r:id="rId61"/>
-    <hyperlink ref="E61" r:id="rId62"/>
-    <hyperlink ref="E62" r:id="rId63"/>
-    <hyperlink ref="E63" r:id="rId64"/>
-    <hyperlink ref="E64" r:id="rId65"/>
+    <hyperlink ref="E2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="E3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="E4:E11" r:id="rId3" display="https://m.place.naver.com/restaurant/1136098121/review/visitor?entry=ple&amp;reviewSort=recent" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="E4" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="E5" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="E6" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="E7" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="E8" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="E9" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="E10" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="E11" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="E12" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="E13:E48" r:id="rId13" display="https://m.place.naver.com/restaurant/****/review/visitor?entry=ple&amp;reviewSort=recent" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="E13" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="E14" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="E15" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="E16" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="E17" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="E18" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="E19" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="E20" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="E21" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="E22" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="E23" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="E24" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="E25" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="E26" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="E27" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="E28" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="E29" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="E30" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="E31" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
+    <hyperlink ref="E32" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="E33" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink ref="E34" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="E35" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
+    <hyperlink ref="E36" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
+    <hyperlink ref="E37" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
+    <hyperlink ref="E38" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
+    <hyperlink ref="E49" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
+    <hyperlink ref="E50" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
+    <hyperlink ref="E51" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
+    <hyperlink ref="E52" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
+    <hyperlink ref="E53" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
+    <hyperlink ref="E54" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
+    <hyperlink ref="E55" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
+    <hyperlink ref="E56" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
+    <hyperlink ref="E57" r:id="rId48" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
+    <hyperlink ref="E58" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
+    <hyperlink ref="E59" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
+    <hyperlink ref="E60" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
+    <hyperlink ref="E61" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
+    <hyperlink ref="E62" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
+    <hyperlink ref="E63" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
+    <hyperlink ref="E64" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
+    <hyperlink ref="E39" r:id="rId56" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
+    <hyperlink ref="E40" r:id="rId57" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
+    <hyperlink ref="E41" r:id="rId58" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
+    <hyperlink ref="E42" r:id="rId59" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
+    <hyperlink ref="E43" r:id="rId60" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
+    <hyperlink ref="E44" r:id="rId61" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
+    <hyperlink ref="E45" r:id="rId62" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
+    <hyperlink ref="E46" r:id="rId63" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
+    <hyperlink ref="E47" r:id="rId64" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
+    <hyperlink ref="E48" r:id="rId65" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId66"/>

--- a/40.SLnC_web_scarpping/data/store_list_full.xlsx
+++ b/40.SLnC_web_scarpping/data/store_list_full.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20403"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20410"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\work_2023\11.Webcrawling_SLnC\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\210020\Desktop\Naver_Reviews\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B017994A-5AC4-48FB-8E86-DB103C4BE319}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4735AD47-585B-4B80-82DC-D5A27E4513AD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19545" windowHeight="11010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="161">
   <si>
     <t>no</t>
   </si>
@@ -52,15 +52,9 @@
     <t>Chai797 Plus 롯데몰 광명점</t>
   </si>
   <si>
-    <t>Chai797 Plus 서현점</t>
-  </si>
-  <si>
     <t>Chai797 Plus 현대충청점</t>
   </si>
   <si>
-    <t>Chai797 종로 그랑 서울점</t>
-  </si>
-  <si>
     <t>Chai797 Plus 신세계김해점</t>
   </si>
   <si>
@@ -264,18 +258,10 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>https://m.place.naver.com/restaurant/37263906/review/visitor?entry=ple&amp;reviewSort=recent</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>https://m.place.naver.com/restaurant/1810894102/review/visitor?entry=ple&amp;reviewSort=recent</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>https://m.place.naver.com/restaurant/1979018419/review/visitor?entry=ple&amp;reviewSort=recent</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>https://m.place.naver.com/restaurant/1178949354/review/visitor?entry=ple&amp;reviewSort=recent</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -514,6 +500,102 @@
   </si>
   <si>
     <t>JUMBO</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Chai797</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>CD</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Chai797 스타필드 수원점</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://m.place.naver.com/restaurant/1450043559/review/visitor?entry=ple&amp;reviewSort=recent</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Chai797 롯데백화점 포항점</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://m.place.naver.com/restaurant/1622942871/review/visitor?entry=ple&amp;reviewSort=recent</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Chai797 신세계센텀시티점</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://m.place.naver.com/restaurant/1803535963/review/visitor?entry=ple&amp;reviewSort=recent</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Chai797 롯데백화점 동탄점</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>서리재</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>서리재 서울역점</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://m.place.naver.com/restaurant/1749714457/review/visitor?entry=ple&amp;reviewSort=recent</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>호우섬</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>호우섬 서울역사점</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://m.place.naver.com/restaurant/1261220098/review/visitor?entry=ple&amp;reviewSort=recent</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>호우섬 롯데백화점 인천점</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://m.place.naver.com/restaurant/1742702640/review/visitor?entry=ple&amp;reviewSort=recent</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>호우섬 현대중동점</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://m.place.naver.com/restaurant/1320234651/review/visitor?entry=ple&amp;reviewSort=recent</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>호우섬 현대천호점</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://m.place.naver.com/restaurant/1106795555/review/visitor?entry=ple&amp;reviewSort=recent</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>호우섬 롯데수원점</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://m.place.naver.com/restaurant/1745719646/review/visitor?entry=ple&amp;reviewSort=recent</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://m.place.naver.com/restaurant/1403012195/review/visitor?entry=ple&amp;reviewSort=recent</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1451,10 +1533,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E64"/>
+  <dimension ref="A1:F76"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="A63" sqref="A63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1470,16 +1552,16 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="D1" t="s">
         <v>1</v>
       </c>
       <c r="E1" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
@@ -1490,13 +1572,13 @@
         <v>2</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="D2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -1507,13 +1589,13 @@
         <v>2</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="D3" t="s">
         <v>3</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -1524,13 +1606,13 @@
         <v>2</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="D4" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
@@ -1541,13 +1623,13 @@
         <v>2</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="D5" t="s">
         <v>4</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
@@ -1558,13 +1640,13 @@
         <v>2</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="D6" t="s">
         <v>5</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
@@ -1575,13 +1657,13 @@
         <v>2</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="D7" t="s">
         <v>6</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
@@ -1592,13 +1674,13 @@
         <v>2</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="D8" t="s">
         <v>7</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
@@ -1609,13 +1691,13 @@
         <v>2</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="D9" t="s">
         <v>8</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
@@ -1626,939 +1708,1088 @@
         <v>2</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="D10" t="s">
         <v>9</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B11" t="s">
         <v>2</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="D11" t="s">
         <v>10</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B12" t="s">
         <v>2</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="D12" t="s">
         <v>11</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B13" t="s">
         <v>2</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="D13" t="s">
         <v>12</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B14" t="s">
         <v>2</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="D14" t="s">
         <v>13</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B15" t="s">
         <v>2</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="D15" t="s">
         <v>14</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B16" t="s">
         <v>2</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="D16" t="s">
         <v>15</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B17" t="s">
         <v>2</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="D17" t="s">
         <v>16</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B18" t="s">
         <v>2</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="D18" t="s">
         <v>17</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B19" t="s">
         <v>2</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D19" t="s">
         <v>18</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B20" t="s">
         <v>2</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="D20" t="s">
         <v>19</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B21" t="s">
         <v>2</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="D21" t="s">
         <v>20</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B22" t="s">
         <v>2</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D22" t="s">
         <v>21</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B23" t="s">
         <v>2</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="D23" t="s">
         <v>22</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B24" t="s">
         <v>2</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="D24" t="s">
         <v>23</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B25" t="s">
         <v>2</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="D25" t="s">
         <v>24</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B26" t="s">
         <v>2</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="D26" t="s">
         <v>25</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B27" t="s">
         <v>2</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D27" t="s">
         <v>26</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B28" t="s">
         <v>2</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D28" t="s">
         <v>27</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B29" t="s">
         <v>2</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="D29" t="s">
         <v>28</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B30" t="s">
         <v>2</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="D30" t="s">
         <v>29</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B31" t="s">
         <v>2</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="D31" t="s">
         <v>30</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B32" t="s">
         <v>2</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="D32" t="s">
         <v>31</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B33" t="s">
         <v>2</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="D33" t="s">
         <v>32</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B34" t="s">
         <v>2</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="D34" t="s">
         <v>33</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B35" t="s">
         <v>2</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D35" t="s">
         <v>34</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B36" t="s">
         <v>2</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="D36" t="s">
         <v>35</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B37" t="s">
-        <v>2</v>
+        <v>52</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="D37" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>103</v>
+        <v>118</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B38" t="s">
-        <v>2</v>
+        <v>52</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="D38" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>104</v>
+        <v>119</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B39" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="D39" t="s">
         <v>55</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B40" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D40" t="s">
         <v>56</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B41" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="D41" t="s">
         <v>57</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B42" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="D42" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B43" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D43" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B44" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="D44" t="s">
         <v>61</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B45" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="D45" t="s">
         <v>62</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B46" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="D46" t="s">
         <v>63</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B47" t="s">
-        <v>60</v>
+        <v>36</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="D47" t="s">
-        <v>64</v>
+        <v>37</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>130</v>
+        <v>101</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B48" t="s">
-        <v>60</v>
+        <v>36</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="D48" t="s">
-        <v>65</v>
+        <v>38</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B49" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="D49" t="s">
         <v>39</v>
       </c>
       <c r="E49" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <v>51</v>
+      </c>
+      <c r="B50" t="s">
+        <v>36</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D50" t="s">
+        <v>104</v>
+      </c>
+      <c r="E50" s="1" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A50">
-        <v>49</v>
-      </c>
-      <c r="B50" t="s">
-        <v>38</v>
-      </c>
-      <c r="C50" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="D50" t="s">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A51">
+        <v>52</v>
+      </c>
+      <c r="B51" t="s">
+        <v>36</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="D51" t="s">
         <v>40</v>
       </c>
-      <c r="E50" s="1" t="s">
+      <c r="E51" s="1" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A51">
-        <v>50</v>
-      </c>
-      <c r="B51" t="s">
-        <v>38</v>
-      </c>
-      <c r="C51" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="D51" t="s">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A52">
+        <v>53</v>
+      </c>
+      <c r="B52" t="s">
+        <v>36</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="D52" t="s">
         <v>41</v>
       </c>
-      <c r="E51" s="1" t="s">
+      <c r="E52" s="1" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A52">
-        <v>51</v>
-      </c>
-      <c r="B52" t="s">
-        <v>38</v>
-      </c>
-      <c r="C52" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="D52" t="s">
-        <v>108</v>
-      </c>
-      <c r="E52" s="1" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B53" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="D53" t="s">
         <v>42</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B54" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="D54" t="s">
         <v>43</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B55" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="D55" t="s">
         <v>44</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B56" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="D56" t="s">
         <v>45</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B57" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="D57" t="s">
         <v>46</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B58" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="D58" t="s">
         <v>47</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B59" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="D59" t="s">
         <v>48</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B60" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="D60" t="s">
         <v>49</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B61" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="D61" t="s">
         <v>50</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B62" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D62" t="s">
         <v>51</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B63" t="s">
-        <v>38</v>
+        <v>137</v>
       </c>
       <c r="C63" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="D63" t="s">
+        <v>139</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="F63" s="2"/>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A64">
+        <v>65</v>
+      </c>
+      <c r="B64" t="s">
         <v>137</v>
       </c>
-      <c r="D63" t="s">
-        <v>52</v>
-      </c>
-      <c r="E63" s="1" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A64">
-        <v>63</v>
-      </c>
-      <c r="B64" t="s">
-        <v>38</v>
-      </c>
       <c r="C64" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="D64" t="s">
+        <v>141</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="F64" s="2"/>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A65">
+        <v>66</v>
+      </c>
+      <c r="B65" t="s">
         <v>137</v>
       </c>
-      <c r="D64" t="s">
-        <v>53</v>
-      </c>
-      <c r="E64" s="1" t="s">
-        <v>121</v>
-      </c>
+      <c r="C65" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="D65" t="s">
+        <v>143</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="F65" s="2"/>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A66">
+        <v>67</v>
+      </c>
+      <c r="B66" t="s">
+        <v>137</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="D66" t="s">
+        <v>145</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="F66" s="2"/>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A67">
+        <v>68</v>
+      </c>
+      <c r="B67" t="s">
+        <v>146</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="D67" t="s">
+        <v>147</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="F67" s="2"/>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A68">
+        <v>69</v>
+      </c>
+      <c r="B68" t="s">
+        <v>149</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="D68" t="s">
+        <v>150</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="F68" s="2"/>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A69">
+        <v>70</v>
+      </c>
+      <c r="B69" t="s">
+        <v>149</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="D69" t="s">
+        <v>152</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="F69" s="2"/>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A70">
+        <v>71</v>
+      </c>
+      <c r="B70" t="s">
+        <v>149</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="D70" t="s">
+        <v>154</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="F70" s="2"/>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A71">
+        <v>72</v>
+      </c>
+      <c r="B71" t="s">
+        <v>149</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="D71" t="s">
+        <v>156</v>
+      </c>
+      <c r="E71" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="F71" s="2"/>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A72">
+        <v>73</v>
+      </c>
+      <c r="B72" t="s">
+        <v>149</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="D72" t="s">
+        <v>158</v>
+      </c>
+      <c r="E72" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="F72" s="2"/>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E76" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="E2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
     <hyperlink ref="E3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="E4:E11" r:id="rId3" display="https://m.place.naver.com/restaurant/1136098121/review/visitor?entry=ple&amp;reviewSort=recent" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="E4:E10" r:id="rId3" display="https://m.place.naver.com/restaurant/1136098121/review/visitor?entry=ple&amp;reviewSort=recent" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
     <hyperlink ref="E4" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
     <hyperlink ref="E5" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
     <hyperlink ref="E6" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
@@ -2566,63 +2797,72 @@
     <hyperlink ref="E8" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
     <hyperlink ref="E9" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
     <hyperlink ref="E10" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="E11" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="E12" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="E13:E48" r:id="rId13" display="https://m.place.naver.com/restaurant/****/review/visitor?entry=ple&amp;reviewSort=recent" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
-    <hyperlink ref="E13" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
-    <hyperlink ref="E14" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
-    <hyperlink ref="E15" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
-    <hyperlink ref="E16" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
-    <hyperlink ref="E17" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
-    <hyperlink ref="E18" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
-    <hyperlink ref="E19" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
-    <hyperlink ref="E20" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
-    <hyperlink ref="E21" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
-    <hyperlink ref="E22" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
-    <hyperlink ref="E23" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
-    <hyperlink ref="E24" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
-    <hyperlink ref="E25" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
-    <hyperlink ref="E26" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
-    <hyperlink ref="E27" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
-    <hyperlink ref="E28" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
-    <hyperlink ref="E29" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
-    <hyperlink ref="E30" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
-    <hyperlink ref="E31" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
-    <hyperlink ref="E32" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
-    <hyperlink ref="E33" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
-    <hyperlink ref="E34" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
-    <hyperlink ref="E35" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
-    <hyperlink ref="E36" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
-    <hyperlink ref="E37" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
-    <hyperlink ref="E38" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
-    <hyperlink ref="E49" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
-    <hyperlink ref="E50" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
-    <hyperlink ref="E51" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
-    <hyperlink ref="E52" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
-    <hyperlink ref="E53" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
-    <hyperlink ref="E54" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
-    <hyperlink ref="E55" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
-    <hyperlink ref="E56" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
-    <hyperlink ref="E57" r:id="rId48" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
-    <hyperlink ref="E58" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
-    <hyperlink ref="E59" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
-    <hyperlink ref="E60" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
-    <hyperlink ref="E61" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
-    <hyperlink ref="E62" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
-    <hyperlink ref="E63" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
-    <hyperlink ref="E64" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
-    <hyperlink ref="E39" r:id="rId56" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
-    <hyperlink ref="E40" r:id="rId57" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
-    <hyperlink ref="E41" r:id="rId58" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
-    <hyperlink ref="E42" r:id="rId59" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
-    <hyperlink ref="E43" r:id="rId60" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
-    <hyperlink ref="E44" r:id="rId61" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
-    <hyperlink ref="E45" r:id="rId62" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
-    <hyperlink ref="E46" r:id="rId63" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
-    <hyperlink ref="E47" r:id="rId64" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
-    <hyperlink ref="E48" r:id="rId65" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
+    <hyperlink ref="E11" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="E12:E46" r:id="rId12" display="https://m.place.naver.com/restaurant/****/review/visitor?entry=ple&amp;reviewSort=recent" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="E12" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="E13" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="E14" r:id="rId15" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="E15" r:id="rId16" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="E16" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="E17" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="E18" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="E19" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="E20" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="E21" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="E22" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="E23" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="E24" r:id="rId25" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="E25" r:id="rId26" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="E26" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="E27" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="E28" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="E29" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
+    <hyperlink ref="E30" r:id="rId31" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="E31" r:id="rId32" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink ref="E32" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="E33" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
+    <hyperlink ref="E34" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
+    <hyperlink ref="E35" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
+    <hyperlink ref="E36" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
+    <hyperlink ref="E47" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
+    <hyperlink ref="E48" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
+    <hyperlink ref="E49" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
+    <hyperlink ref="E50" r:id="rId41" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
+    <hyperlink ref="E51" r:id="rId42" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
+    <hyperlink ref="E52" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
+    <hyperlink ref="E53" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
+    <hyperlink ref="E54" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
+    <hyperlink ref="E55" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
+    <hyperlink ref="E56" r:id="rId47" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
+    <hyperlink ref="E57" r:id="rId48" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
+    <hyperlink ref="E58" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
+    <hyperlink ref="E59" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
+    <hyperlink ref="E60" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
+    <hyperlink ref="E61" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
+    <hyperlink ref="E62" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
+    <hyperlink ref="E37" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
+    <hyperlink ref="E38" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
+    <hyperlink ref="E39" r:id="rId56" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
+    <hyperlink ref="E40" r:id="rId57" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
+    <hyperlink ref="E41" r:id="rId58" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
+    <hyperlink ref="E42" r:id="rId59" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
+    <hyperlink ref="E43" r:id="rId60" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
+    <hyperlink ref="E44" r:id="rId61" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
+    <hyperlink ref="E45" r:id="rId62" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
+    <hyperlink ref="E46" r:id="rId63" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
+    <hyperlink ref="E63" r:id="rId64" xr:uid="{14C3AB73-1ACA-4520-A0CA-64BAF33A5C80}"/>
+    <hyperlink ref="E64" r:id="rId65" xr:uid="{CC740E5A-9294-482D-8183-FC63AC9B06A4}"/>
+    <hyperlink ref="E65" r:id="rId66" xr:uid="{9FC359AB-8A27-4234-9E2F-430CDF8CC889}"/>
+    <hyperlink ref="E67" r:id="rId67" xr:uid="{67565B41-BB1D-45DB-AD34-8179DCB50662}"/>
+    <hyperlink ref="E68:E72" r:id="rId68" display="https://m.place.naver.com/restaurant/1918327325/review/visitor?entry=ple&amp;reviewSort=recent" xr:uid="{D69DCCD7-9853-4B13-96E3-1B1C5392FD99}"/>
+    <hyperlink ref="E68" r:id="rId69" xr:uid="{6A17A3DD-7359-4554-A93A-721C3DF54050}"/>
+    <hyperlink ref="E69" r:id="rId70" xr:uid="{543492E2-9830-4BFB-B2B7-3740B36CC2E3}"/>
+    <hyperlink ref="E70" r:id="rId71" xr:uid="{E9318FB2-439A-4568-92BF-0EDE1CBE102B}"/>
+    <hyperlink ref="E71" r:id="rId72" xr:uid="{714C2E01-6D97-4ADA-BB02-FF468CFE6B91}"/>
+    <hyperlink ref="E72" r:id="rId73" xr:uid="{455D14A2-5452-4B88-B77C-00BF43A14D4C}"/>
+    <hyperlink ref="E66" r:id="rId74" xr:uid="{F08956C0-33C6-4DFD-923B-5BE54BB45006}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId66"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId75"/>
 </worksheet>
 </file>